--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
@@ -543,10 +543,10 @@
         <v>0.444339</v>
       </c>
       <c r="I2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>1.128055367082</v>
+        <v>1.222295818044</v>
       </c>
       <c r="R2">
-        <v>10.152498303738</v>
+        <v>11.000662362396</v>
       </c>
       <c r="S2">
-        <v>0.04906026689755787</v>
+        <v>0.02016056626320403</v>
       </c>
       <c r="T2">
-        <v>0.04906026689755786</v>
+        <v>0.02016056626320403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.444339</v>
       </c>
       <c r="I3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
         <v>12.883876451481</v>
@@ -635,10 +635,10 @@
         <v>115.954888063329</v>
       </c>
       <c r="S3">
-        <v>0.560332795561152</v>
+        <v>0.2125068588900844</v>
       </c>
       <c r="T3">
-        <v>0.560332795561152</v>
+        <v>0.2125068588900845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.444339</v>
       </c>
       <c r="I4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>3.849529790967</v>
+        <v>8.563017472862999</v>
       </c>
       <c r="R4">
-        <v>34.645768118703</v>
+        <v>77.067157255767</v>
       </c>
       <c r="S4">
-        <v>0.1674199374304406</v>
+        <v>0.1412385435883197</v>
       </c>
       <c r="T4">
-        <v>0.1674199374304406</v>
+        <v>0.1412385435883197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.444339</v>
       </c>
       <c r="I5">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J5">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.138635644098</v>
+        <v>0.178823588727</v>
       </c>
       <c r="R5">
-        <v>1.247720796882</v>
+        <v>1.609412298543</v>
       </c>
       <c r="S5">
-        <v>0.006029404140469206</v>
+        <v>0.002949519058098299</v>
       </c>
       <c r="T5">
-        <v>0.006029404140469206</v>
+        <v>0.002949519058098299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H6">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>0.3129183988706667</v>
+        <v>2.021111423231556</v>
       </c>
       <c r="R6">
-        <v>2.816265589836</v>
+        <v>18.190002809084</v>
       </c>
       <c r="S6">
-        <v>0.01360913711661409</v>
+        <v>0.03333624329876549</v>
       </c>
       <c r="T6">
-        <v>0.01360913711661408</v>
+        <v>0.03333624329876549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H7">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
-        <v>3.573939815448667</v>
+        <v>21.30396708160456</v>
       </c>
       <c r="R7">
-        <v>32.165458339038</v>
+        <v>191.735703734441</v>
       </c>
       <c r="S7">
-        <v>0.1554342511354539</v>
+        <v>0.3513879649078083</v>
       </c>
       <c r="T7">
-        <v>0.1554342511354539</v>
+        <v>0.3513879649078084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H8">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I8">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J8">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>1.067845368007333</v>
+        <v>14.15926666543811</v>
       </c>
       <c r="R8">
-        <v>9.610608312065999</v>
+        <v>127.433399988943</v>
       </c>
       <c r="S8">
-        <v>0.04644167324453006</v>
+        <v>0.2335431649465605</v>
       </c>
       <c r="T8">
-        <v>0.04644167324453005</v>
+        <v>0.2335431649465605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H9">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I9">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J9">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>0.03845701642266666</v>
+        <v>0.2956914296718889</v>
       </c>
       <c r="R9">
-        <v>0.3461131478039999</v>
+        <v>2.661222867047</v>
       </c>
       <c r="S9">
-        <v>0.0016725344737823</v>
+        <v>0.004877139047159086</v>
       </c>
       <c r="T9">
-        <v>0.0016725344737823</v>
+        <v>0.004877139047159086</v>
       </c>
     </row>
   </sheetData>
